--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_151.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_151.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_151.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_151.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Motel 6 Luling</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Luling</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>39114</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70070</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70070</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_151.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_151.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,474 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r610182060-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40290</t>
+  </si>
+  <si>
+    <t>116272</t>
+  </si>
+  <si>
+    <t>610182060</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>It's a Motel 6, but it was nice. The room was clean and price great to just sleep. We were hesitant because some basic chain hotels can be shady, but this was a nice surprise.  I'd stay again if passing through.  It was clean and comfortable. All we needed.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r573796184-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>573796184</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome stay for the price. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s a no frills hotel, but it’s very clean and an awesome stay for the price. I would recommend this place to anyone going through the area. There is smoking and non smoking rooms. They are accommodating for late night check in’s. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r528105441-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>528105441</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Not bad for money</t>
+  </si>
+  <si>
+    <t>Have to say was little surprised with the room here. Room was nice and clean, bed very comfortable. Room was nothing fancy, but better than expected. Good place to stay when working in the area need clean bed and shower.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r492454584-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>492454584</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passing through </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent the night passing through Louisiana. Rooms appear to have been recently renovated. No coffee pot in the room but did feature fridge and microwave.  Beds were comfortable and the area was Friendly. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r281630447-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>281630447</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice for the $ </t>
+  </si>
+  <si>
+    <t>The exterior looks a little sketch but the rooms are nice, large and updated. The door to the each room go to the exterior which is not made apparent in the pictures but I never felt unsafe. I was pleasantly surprised. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>bestwesternlulingla, Webmaster at Motel 6 Luling, LA, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>The exterior looks a little sketch but the rooms are nice, large and updated. The door to the each room go to the exterior which is not made apparent in the pictures but I never felt unsafe. I was pleasantly surprised. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r272904362-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>272904362</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Restful days in Louisiana</t>
+  </si>
+  <si>
+    <t>We spent 3 nights in Luling, La.  It was quiet, cool, and the bed was excellent.  We were exhausted and rested very well.  The property was in good shape, clean and neat.  Our only issue was at breakfast there was no hot food left when we arrived about 8:30 am. and no one asked if we would like any.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We spent 3 nights in Luling, La.  It was quiet, cool, and the bed was excellent.  We were exhausted and rested very well.  The property was in good shape, clean and neat.  Our only issue was at breakfast there was no hot food left when we arrived about 8:30 am. and no one asked if we would like any.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r262343643-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>262343643</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Very basic motel along highway and busy railroad tracks</t>
+  </si>
+  <si>
+    <t>This is the most "basic" Best Western we have every stayed at (and we stay at a lot of Best Western motels).  The room was basically clean and very simply decorated.  Although the motel is set back from the highway, there is still some street noise.  And the train tracks across the road is busy -- with trains that blow their whistles during the night. --- That will be true with all the motels along this strip, however.  We did not get to try the breakfast due to an early morning departure from the NO airport.  It was an okay place to stay, however, about 20 minutes away from the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>This is the most "basic" Best Western we have every stayed at (and we stay at a lot of Best Western motels).  The room was basically clean and very simply decorated.  Although the motel is set back from the highway, there is still some street noise.  And the train tracks across the road is busy -- with trains that blow their whistles during the night. --- That will be true with all the motels along this strip, however.  We did not get to try the breakfast due to an early morning departure from the NO airport.  It was an okay place to stay, however, about 20 minutes away from the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r257776579-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>257776579</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Best Western River Region Inn</t>
+  </si>
+  <si>
+    <t>We did not feel our car was safe in the parking lot.  When my wife went out to the car to get something there were cars pulling into the lot, revving their engines, girls getting out and running into the lobby and then right back out, guys hanging out next to their car not doing anything except looking around.  Did not sleep well because of this.  Asked for a wake-up call (since there was no clock (of any kind in the room) and never received the call.MoreShow less</t>
+  </si>
+  <si>
+    <t>We did not feel our car was safe in the parking lot.  When my wife went out to the car to get something there were cars pulling into the lot, revving their engines, girls getting out and running into the lobby and then right back out, guys hanging out next to their car not doing anything except looking around.  Did not sleep well because of this.  Asked for a wake-up call (since there was no clock (of any kind in the room) and never received the call.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r210474126-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>210474126</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Quiet Stay Close to Big Easy</t>
+  </si>
+  <si>
+    <t>Nice hotel near New Orleans.  Quiet location, clean room, no traffic makes this an ideal place to unwind after spending a day in the city.  The hotel is also near River Road which is where you can find beautiful scenery and 4 historic and famous plantation homes.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Nice hotel near New Orleans.  Quiet location, clean room, no traffic makes this an ideal place to unwind after spending a day in the city.  The hotel is also near River Road which is where you can find beautiful scenery and 4 historic and famous plantation homes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r204519369-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>204519369</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>Staff held the last room of the night for me, as very much appreciated. Room was clean and well decorated and the location and staff were very friendly, breakfast was sub-par but did not diminish my overall experience of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Staff held the last room of the night for me, as very much appreciated. Room was clean and well decorated and the location and staff were very friendly, breakfast was sub-par but did not diminish my overall experience of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r202409896-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>202409896</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Average experience</t>
+  </si>
+  <si>
+    <t>Our stay at the Best Western in Luling was average at best. Our room was clean and spacious.  There was a hot breakfast.  The price was expensive for what we got.  The desk clerk was not overly friendly.  She had everything locked early in the evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>bestwesternlulingla, Webmaster at Motel 6 Luling, LA, responded to this reviewResponded April 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2014</t>
+  </si>
+  <si>
+    <t>Our stay at the Best Western in Luling was average at best. Our room was clean and spacious.  There was a hot breakfast.  The price was expensive for what we got.  The desk clerk was not overly friendly.  She had everything locked early in the evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r202508194-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>202508194</t>
+  </si>
+  <si>
+    <t>Wonderful hotel in great location</t>
+  </si>
+  <si>
+    <t>We wanted to see New Orleans but didn't want to stay in the expensive inner city locations.  This was great.  We rode our motorcycle down toward Grand Isle and the hotel was a great central location.  The hotel was very clean and the neighborhood was safe enough we took an evening walk.  Mostly chain restaurants in the area and wished their had been more local places to choose from.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r201150406-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201150406</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Standard as expected, rooms dark but clean, the management and service friendly but nothing really making it more than a bestwestern-travelodge-daysinn type that you can come across anywhere else. What's more I could have been unlucky but the pricing was nit very competitive. The nearby highway and the train produce some noise you can survive. The neighbouring restarant (Dot's Diner) offers an interesting local atmosphere, warm-hearted and quick service and the food pretty similar anywhere else in this part of the world.The village of Lulling is fairly big and probably quite rich. Has two churches (Roman Catholic and Baptist).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r200539370-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200539370</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>Hotel was adequate but that's about it.  The room was nothing special and seemed as though it could use a thorough scrubbing.  The receptionist as the front desk wasn't very friendly and the  breakfast left a lot to be desired.  It seems as though you never really know what to expect from Best Western Hotels anymore.  Some I've stayed in have been very nice and some, like this one, aren't a place I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was adequate but that's about it.  The room was nothing special and seemed as though it could use a thorough scrubbing.  The receptionist as the front desk wasn't very friendly and the  breakfast left a lot to be desired.  It seems as though you never really know what to expect from Best Western Hotels anymore.  Some I've stayed in have been very nice and some, like this one, aren't a place I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r195521659-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>195521659</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>Great place for my family weekend trip!</t>
+  </si>
+  <si>
+    <t>Awesome place to stay! enjoy it with my family. We went to visit the French Quarter, but decide to stay in Luling. I am glad  we stayed at Best Western. I would recommend it to anyone!  Good job !!!!! Nice room, clean bathrooom .</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r185154397-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>185154397</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Real gem /diamond in the rough</t>
+  </si>
+  <si>
+    <t>I was lucky to find this hotel on a last minute trip to New Orleans saint’s game weekend. I under estimate the hotel from the internet pictures and was just looking for a bed.  To my surprise the rooms were updated and very clean.  I will stay at this hotel again when I in town.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r184321620-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>184321620</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>not up to par</t>
+  </si>
+  <si>
+    <t>although lower in price than the hotels close to the airport or New Orleans (it is 15 miles south of Kenner), this hotel isn't worth it. It is clean but shabby, dark and lacks outlets in the guest rooms (have to charge in the bathroom). The staff overcharged and had to be told of the email confirmation to honor rates. The breakfast was poorly stocked and they ran out of food 8:20 am. And do not drink the coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>bestwesternlulingla, Webmaster at Motel 6 Luling, LA, responded to this reviewResponded February 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2014</t>
+  </si>
+  <si>
+    <t>although lower in price than the hotels close to the airport or New Orleans (it is 15 miles south of Kenner), this hotel isn't worth it. It is clean but shabby, dark and lacks outlets in the guest rooms (have to charge in the bathroom). The staff overcharged and had to be told of the email confirmation to honor rates. The breakfast was poorly stocked and they ran out of food 8:20 am. And do not drink the coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r183604068-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>183604068</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Great Stay Great Price</t>
+  </si>
+  <si>
+    <t>nice large room with big comfortable bed, great shower. the ac wasn't very good, excellent staff very helpful courteous and professional fairly decent breakfast, parking in the rear is very tight for larger vehicles i.e.. pick ups and larger SUV's, Ms Patel is great at the front desk, very close to highway however very quiet</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r173442189-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>173442189</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Much Improved</t>
+  </si>
+  <si>
+    <t>The hotel has always been clean and welcoming, however they have made great strides of late to improve the quality of appearance and technology in the rooms.  Nicer tv's, chairs, furniture.  When working West of New Orleans I will always consider staying at the Best Western in Luling.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r169837021-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>169837021</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Not A Good Choice</t>
+  </si>
+  <si>
+    <t>Room key did not work and could not be replaced.  Manager had to let me into the room with her master key.  Room definitely needs to be renovated since it is very dated.  The location was appeared to be near the airport, but turned out to be much further.  This was intended to be just a place to sleep, which was fine.  I wish I would have chosen a different hotel closer to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Best_Western_RRI, Manager at Motel 6 Luling, LA, responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Room key did not work and could not be replaced.  Manager had to let me into the room with her master key.  Room definitely needs to be renovated since it is very dated.  The location was appeared to be near the airport, but turned out to be much further.  This was intended to be just a place to sleep, which was fine.  I wish I would have chosen a different hotel closer to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r146130154-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>146130154</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>No problems here</t>
+  </si>
+  <si>
+    <t>Stayed here about four weeks on business.  It was clean, quiet, well run, pleasant, with a cheerful, helpfull staff.  Wash and fold laundry service available at the desk.  Good breakfast, daily paper.  Not brand new, but clean and well maintained.  24 hr diner and convenience store next door.  Walmart and fast food, plus a few local restaurants right nearby.  Close enough to New Orleans to be convenient; far enough away to be quiet and inexpensive.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r109966412-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>109966412</t>
+  </si>
+  <si>
+    <t>05/26/2011</t>
+  </si>
+  <si>
+    <t>Peeping cleaning staff, noisy and more...</t>
+  </si>
+  <si>
+    <t>Apart from the constant noise from the road out front, which is not an arterial roadway, the staff did not follow up on a check in request... which was to charge out on a different c-card. The morning of my checkout I had curious cleaning staff looking in through the curtained windows trying to see if I was still inside (approx. 3 Hrs before checkout time!!!) The front desk staff were friendly enough, but did not act on my request (which they stated was - not a problem!)... I usually stay at another brand of hotel, though decided to try Best Western seeing as though it had been quite some time since I last used their services. This experience was enough for me to make it another few years before I would be willing to use them again. I'm a reasonably frequent user of hotels across the country and through this experience, will choose the other brand - as they actually invest in remodeling their accommodations and extra client services.... sorry BW, you lose out this time, especially on this particular hotel. When I stay at your hotels for business, I EXPECT a good, sound night's sleep in readiness for my business activities on the following day - this time round, I woke up more tired than when I put my head down to sleep.... not good any way you want to look at it!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Apart from the constant noise from the road out front, which is not an arterial roadway, the staff did not follow up on a check in request... which was to charge out on a different c-card. The morning of my checkout I had curious cleaning staff looking in through the curtained windows trying to see if I was still inside (approx. 3 Hrs before checkout time!!!) The front desk staff were friendly enough, but did not act on my request (which they stated was - not a problem!)... I usually stay at another brand of hotel, though decided to try Best Western seeing as though it had been quite some time since I last used their services. This experience was enough for me to make it another few years before I would be willing to use them again. I'm a reasonably frequent user of hotels across the country and through this experience, will choose the other brand - as they actually invest in remodeling their accommodations and extra client services.... sorry BW, you lose out this time, especially on this particular hotel. When I stay at your hotels for business, I EXPECT a good, sound night's sleep in readiness for my business activities on the following day - this time round, I woke up more tired than when I put my head down to sleep.... not good any way you want to look at it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40290-d116272-r11010531-Motel_6_Luling_LA-Luling_Louisiana.html</t>
+  </si>
+  <si>
+    <t>11010531</t>
+  </si>
+  <si>
+    <t>11/23/2007</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>Not the best hotel... but the people whom work the front desk are great!</t>
+  </si>
+  <si>
+    <t>September 2007</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +1029,1527 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>103</v>
+      </c>
+      <c r="X12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>103</v>
+      </c>
+      <c r="X15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>139</v>
+      </c>
+      <c r="X18" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>159</v>
+      </c>
+      <c r="X21" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>139</v>
+      </c>
+      <c r="X23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +2572,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +2604,31 @@
         <v>39114</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="E2" t="n">
         <v>70070</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
